--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>701716.4988036524</v>
+        <v>699174.9236607334</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10009295.05931656</v>
+        <v>10009295.05931665</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11571401.76647049</v>
+        <v>11571401.76647048</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>338.7138576864072</v>
       </c>
       <c r="C11" t="n">
-        <v>321.2529077939342</v>
+        <v>321.2529077939341</v>
       </c>
       <c r="D11" t="n">
         <v>310.6630576436096</v>
@@ -1385,7 +1385,7 @@
         <v>366.9017416763801</v>
       </c>
       <c r="H11" t="n">
-        <v>250.5877804102471</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>65.16777781110248</v>
+        <v>65.16777781110245</v>
       </c>
       <c r="T11" t="n">
         <v>159.8979861625468</v>
@@ -1433,10 +1433,10 @@
         <v>305.2209847403396</v>
       </c>
       <c r="X11" t="n">
-        <v>279.4788256305708</v>
+        <v>325.7111167013957</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>204.355489339422</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.35879310893347</v>
+        <v>135.8119962048639</v>
       </c>
       <c r="C13" t="n">
-        <v>123.2268371215545</v>
+        <v>123.2268371215544</v>
       </c>
       <c r="D13" t="n">
         <v>104.595489041139</v>
       </c>
       <c r="E13" t="n">
-        <v>102.4139786694958</v>
+        <v>84.29321200633025</v>
       </c>
       <c r="F13" t="n">
         <v>101.4010640458579</v>
       </c>
       <c r="G13" t="n">
-        <v>122.0058242819549</v>
+        <v>122.0058242819548</v>
       </c>
       <c r="H13" t="n">
         <v>100.7350309372474</v>
       </c>
       <c r="I13" t="n">
-        <v>52.33243643276474</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.91216869297398</v>
+        <v>44.91216869297395</v>
       </c>
       <c r="S13" t="n">
         <v>145.7490413543685</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.6630576436096</v>
+        <v>310.6630576436095</v>
       </c>
       <c r="E14" t="n">
-        <v>337.9103860951884</v>
+        <v>274.758728051061</v>
       </c>
       <c r="F14" t="n">
-        <v>362.8560617646381</v>
+        <v>362.856061764638</v>
       </c>
       <c r="G14" t="n">
-        <v>366.9017416763801</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>250.5877804102471</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>65.16777781110247</v>
+        <v>65.16777781110241</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>159.8979861625467</v>
       </c>
       <c r="U14" t="n">
         <v>206.9751879818286</v>
@@ -1670,10 +1670,10 @@
         <v>305.2209847403396</v>
       </c>
       <c r="X14" t="n">
-        <v>325.7111167013957</v>
+        <v>325.7111167013956</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.06254112101857</v>
+        <v>342.2179546789802</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>135.8119962048639</v>
       </c>
       <c r="C16" t="n">
-        <v>123.2268371215545</v>
+        <v>123.2268371215544</v>
       </c>
       <c r="D16" t="n">
-        <v>104.595489041139</v>
+        <v>104.5954890411389</v>
       </c>
       <c r="E16" t="n">
-        <v>102.4139786694958</v>
+        <v>102.4139786694957</v>
       </c>
       <c r="F16" t="n">
-        <v>101.4010640458579</v>
+        <v>101.4010640458578</v>
       </c>
       <c r="G16" t="n">
-        <v>51.5526211860241</v>
+        <v>103.8850576187898</v>
       </c>
       <c r="H16" t="n">
         <v>100.7350309372474</v>
       </c>
       <c r="I16" t="n">
-        <v>52.33243643276473</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.91216869297396</v>
+        <v>44.91216869297391</v>
       </c>
       <c r="S16" t="n">
         <v>145.7490413543685</v>
@@ -1828,7 +1828,7 @@
         <v>242.5030143595176</v>
       </c>
       <c r="X16" t="n">
-        <v>181.6896714119638</v>
+        <v>181.6896714119637</v>
       </c>
       <c r="Y16" t="n">
         <v>174.5646693750214</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
@@ -1850,16 +1850,16 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>237.403751315303</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>250.0428590791921</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -2002,25 +2002,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2084,19 +2084,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>236.6002797240844</v>
       </c>
       <c r="F20" t="n">
-        <v>13.91332762480429</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,10 +2141,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2239,25 +2239,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2476,25 +2476,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124593</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,25 +2789,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958317</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.4588260279765</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433857</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572996</v>
+        <v>97.7798782957277</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124544</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145467</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,19 +3266,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G35" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H35" t="n">
         <v>247.6326277687279</v>
@@ -3326,10 +3326,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X35" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y35" t="n">
         <v>339.262802037461</v>
@@ -3503,7 +3503,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
         <v>307.7079050020903</v>
@@ -3515,7 +3515,7 @@
         <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3679,7 +3679,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>335.7587050448879</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536691</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958315</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515422</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988203</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
-        <v>339.2628020374609</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633446</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800351</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797647</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433855</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404355</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572808</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124541</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145464</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575765</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2367015870201</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052353</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X43" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335021</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="44">
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,64 +5015,64 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1669.861483724466</v>
+        <v>1416.742513613105</v>
       </c>
       <c r="C11" t="n">
-        <v>1345.363597063926</v>
+        <v>1092.244626952565</v>
       </c>
       <c r="D11" t="n">
-        <v>1031.562528737048</v>
+        <v>778.4435586256869</v>
       </c>
       <c r="E11" t="n">
-        <v>690.2389064186756</v>
+        <v>437.1199363073148</v>
       </c>
       <c r="F11" t="n">
-        <v>690.2389064186756</v>
+        <v>437.1199363073148</v>
       </c>
       <c r="G11" t="n">
-        <v>319.6310865435441</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3259.779783416138</v>
+        <v>3259.779783416137</v>
       </c>
       <c r="T11" t="n">
-        <v>3098.266666080232</v>
+        <v>3098.266666080231</v>
       </c>
       <c r="U11" t="n">
-        <v>2889.20081963394</v>
+        <v>2889.200819633939</v>
       </c>
       <c r="V11" t="n">
         <v>2602.602562570241</v>
@@ -5081,10 +5081,10 @@
         <v>2294.298537579999</v>
       </c>
       <c r="X11" t="n">
-        <v>2011.996693508716</v>
+        <v>1965.297409598791</v>
       </c>
       <c r="Y11" t="n">
-        <v>2011.996693508716</v>
+        <v>1758.877723397355</v>
       </c>
     </row>
     <row r="12">
@@ -5112,19 +5112,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3612684827029</v>
+        <v>709.1964168706515</v>
       </c>
       <c r="C13" t="n">
-        <v>655.889715834668</v>
+        <v>584.7248642226168</v>
       </c>
       <c r="D13" t="n">
-        <v>550.2377067022044</v>
+        <v>479.0728550901534</v>
       </c>
       <c r="E13" t="n">
-        <v>446.7892433996833</v>
+        <v>393.9281964979006</v>
       </c>
       <c r="F13" t="n">
-        <v>344.3639261816451</v>
+        <v>291.5028792798624</v>
       </c>
       <c r="G13" t="n">
-        <v>221.125719836236</v>
+        <v>168.2646729344535</v>
       </c>
       <c r="H13" t="n">
-        <v>119.373163333966</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
         <v>155.2145330164216</v>
@@ -5203,7 +5203,7 @@
         <v>402.7815001026005</v>
       </c>
       <c r="L13" t="n">
-        <v>762.9210826883992</v>
+        <v>762.9210826883991</v>
       </c>
       <c r="M13" t="n">
         <v>1150.657912425251</v>
@@ -5224,7 +5224,7 @@
         <v>2230.566994224313</v>
       </c>
       <c r="S13" t="n">
-        <v>2083.345740331012</v>
+        <v>2083.345740331011</v>
       </c>
       <c r="T13" t="n">
         <v>1906.04375518041</v>
@@ -5236,13 +5236,13 @@
         <v>1451.185660659911</v>
       </c>
       <c r="W13" t="n">
-        <v>1206.233120902823</v>
+        <v>1206.233120902822</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.708200284678</v>
+        <v>1022.708200284677</v>
       </c>
       <c r="Y13" t="n">
-        <v>846.3802514210196</v>
+        <v>846.3802514210191</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1711.884871573662</v>
+        <v>1277.487498118603</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.884871573662</v>
+        <v>1277.487498118603</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.083803246783</v>
+        <v>963.686429791725</v>
       </c>
       <c r="E14" t="n">
-        <v>1056.760180928411</v>
+        <v>686.1523610532795</v>
       </c>
       <c r="F14" t="n">
-        <v>690.2389064186757</v>
+        <v>319.6310865435441</v>
       </c>
       <c r="G14" t="n">
         <v>319.6310865435441</v>
@@ -5276,25 +5276,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
@@ -5306,22 +5306,22 @@
         <v>3259.779783416138</v>
       </c>
       <c r="T14" t="n">
-        <v>3259.779783416138</v>
+        <v>3098.266666080232</v>
       </c>
       <c r="U14" t="n">
-        <v>3050.713936969846</v>
+        <v>2889.200819633941</v>
       </c>
       <c r="V14" t="n">
-        <v>2764.115679906148</v>
+        <v>2602.602562570242</v>
       </c>
       <c r="W14" t="n">
-        <v>2455.811654915906</v>
+        <v>2294.29853758</v>
       </c>
       <c r="X14" t="n">
-        <v>2126.810526934698</v>
+        <v>1965.297409598792</v>
       </c>
       <c r="Y14" t="n">
-        <v>2054.020081357911</v>
+        <v>1619.622707902853</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5343,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.1964168706517</v>
+        <v>709.1964168706521</v>
       </c>
       <c r="C16" t="n">
-        <v>584.7248642226168</v>
+        <v>584.7248642226174</v>
       </c>
       <c r="D16" t="n">
-        <v>479.0728550901531</v>
+        <v>479.0728550901538</v>
       </c>
       <c r="E16" t="n">
-        <v>375.624391787632</v>
+        <v>375.6243917876329</v>
       </c>
       <c r="F16" t="n">
-        <v>273.1990745695938</v>
+        <v>273.1990745695946</v>
       </c>
       <c r="G16" t="n">
-        <v>221.1257198362361</v>
+        <v>168.2646729344535</v>
       </c>
       <c r="H16" t="n">
-        <v>119.373163333966</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5440,7 +5440,7 @@
         <v>402.7815001026006</v>
       </c>
       <c r="L16" t="n">
-        <v>762.9210826883995</v>
+        <v>762.9210826883993</v>
       </c>
       <c r="M16" t="n">
         <v>1150.657912425251</v>
@@ -5452,13 +5452,13 @@
         <v>1878.555456326134</v>
       </c>
       <c r="P16" t="n">
-        <v>2154.742740897096</v>
+        <v>2154.742740897097</v>
       </c>
       <c r="Q16" t="n">
-        <v>2275.932821186913</v>
+        <v>2275.932821186914</v>
       </c>
       <c r="R16" t="n">
-        <v>2230.566994224313</v>
+        <v>2230.566994224314</v>
       </c>
       <c r="S16" t="n">
         <v>2083.345740331012</v>
@@ -5476,10 +5476,10 @@
         <v>1206.233120902823</v>
       </c>
       <c r="X16" t="n">
-        <v>1022.708200284677</v>
+        <v>1022.708200284678</v>
       </c>
       <c r="Y16" t="n">
-        <v>846.3802514210192</v>
+        <v>846.3802514210197</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1680.134122574823</v>
+        <v>1640.517726580261</v>
       </c>
       <c r="C17" t="n">
-        <v>1358.621238582485</v>
+        <v>1319.004842587923</v>
       </c>
       <c r="D17" t="n">
-        <v>1047.805172923807</v>
+        <v>1008.188776929246</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>669.8501572790747</v>
       </c>
       <c r="F17" t="n">
-        <v>684.2689010822731</v>
+        <v>306.31388543754</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>306.31388543754</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218342</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,13 +5525,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
@@ -5552,13 +5552,13 @@
         <v>2614.542573243047</v>
       </c>
       <c r="W17" t="n">
-        <v>2614.542573243047</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X17" t="n">
-        <v>2361.97402871861</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y17" t="n">
-        <v>2019.284329690872</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611986</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268788</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770418</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218342</v>
@@ -5674,49 +5674,49 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337106</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1301.367519464211</v>
+        <v>1301.367519464213</v>
       </c>
       <c r="C20" t="n">
-        <v>979.8546354718729</v>
+        <v>979.8546354718746</v>
       </c>
       <c r="D20" t="n">
-        <v>669.0385698131957</v>
+        <v>669.0385698131972</v>
       </c>
       <c r="E20" t="n">
-        <v>330.6999501630248</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F20" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810553</v>
@@ -5759,43 +5759,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3104.236671416633</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U20" t="n">
-        <v>2898.155827638543</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2614.542573243046</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2309.223550921005</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.207425607998</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.51772658026</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5823,19 +5823,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5896,25 +5896,25 @@
         <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998338</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
@@ -5953,7 +5953,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874607</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.107542689498</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D23" t="n">
         <v>1400.778593038483</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G23" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H23" t="n">
         <v>81.14691689668915</v>
@@ -5996,16 +5996,16 @@
         <v>1468.364237198915</v>
       </c>
       <c r="M23" t="n">
-        <v>2030.265665799117</v>
+        <v>2001.89614187084</v>
       </c>
       <c r="N23" t="n">
-        <v>2577.044482857899</v>
+        <v>2548.674958929621</v>
       </c>
       <c r="O23" t="n">
-        <v>3080.016953737236</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q23" t="n">
         <v>3933.269522603402</v>
@@ -6017,22 +6017,22 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="24">
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D25" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G25" t="n">
         <v>229.7905149643394</v>
@@ -6148,7 +6148,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
         <v>786.3326864982171</v>
@@ -6190,7 +6190,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6227,28 +6227,28 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>887.9771891384787</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.011402386887</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285458</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521973</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6303,7 +6303,7 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
         <v>413.0883853676542</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E28" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302709</v>
       </c>
       <c r="I28" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6400,7 +6400,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P28" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
         <v>2313.972430572251</v>
@@ -6415,19 +6415,19 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="29">
@@ -6452,61 +6452,61 @@
         <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398485</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
         <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.011402386886</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M29" t="n">
-        <v>1872.543307058811</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285457</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164794</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277654</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698016</v>
+        <v>774.1010502697997</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899681</v>
+        <v>652.614500289966</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257058</v>
+        <v>549.9474938257036</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913861</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415491</v>
+        <v>350.0437186415467</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643415</v>
+        <v>229.790514964339</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302708</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,34 +6637,34 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347425</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519679</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,7 +6686,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6698,28 +6698,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>1092.155029011367</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1561.793016801446</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2095.324921473371</v>
+        <v>1653.273486349</v>
       </c>
       <c r="N32" t="n">
-        <v>2642.103738532152</v>
+        <v>2200.052303407782</v>
       </c>
       <c r="O32" t="n">
-        <v>3145.076209411489</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768667</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,7 +6731,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468334</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6783,7 +6783,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D34" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I34" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="35">
@@ -6938,28 +6938,28 @@
         <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>697.2742011480909</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1561.793016801445</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>2095.32492147337</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2642.103738532152</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O35" t="n">
-        <v>3145.076209411489</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P35" t="n">
-        <v>3539.850575768667</v>
+        <v>3728.510094301076</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277655</v>
+        <v>3976.796456056758</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309626</v>
@@ -6968,10 +6968,10 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7026,13 +7026,13 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O36" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P36" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q36" t="n">
         <v>2579.688342997847</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697993</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899657</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257033</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913836</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415465</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643389</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
         <v>423.2675027973142</v>
@@ -7111,7 +7111,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P37" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q37" t="n">
         <v>2313.972430572251</v>
@@ -7123,22 +7123,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U37" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519657</v>
       </c>
     </row>
     <row r="38">
@@ -7172,31 +7172,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1635.769886219269</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M38" t="n">
-        <v>2169.301790891193</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N38" t="n">
-        <v>2852.295579285458</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>3355.268050164795</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P38" t="n">
-        <v>3750.042416521972</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
-        <v>3998.328778277655</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
         <v>3994.504809309626</v>
@@ -7257,13 +7257,13 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E40" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F40" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I40" t="n">
         <v>81.14691689668915</v>
@@ -7345,10 +7345,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7366,7 +7366,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V40" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W40" t="n">
         <v>1262.182746297367</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="41">
@@ -7394,49 +7394,49 @@
         <v>1400.778593038484</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467794</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G41" t="n">
-        <v>331.2808843398485</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L41" t="n">
-        <v>1326.966459396847</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M41" t="n">
-        <v>2305.516762226675</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N41" t="n">
-        <v>2852.295579285457</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O41" t="n">
-        <v>3355.268050164794</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521972</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277654</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
         <v>3835.976694641921</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D42" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F42" t="n">
         <v>327.0192030246656</v>
@@ -7485,16 +7485,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676534</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803187</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502697991</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899656</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257033</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913837</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0229611302703</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668913</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973145</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.99511735017</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308442</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481262</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.856749167328</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572249</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.59160627785</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.35535505275</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.03837257035</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644067</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V43" t="n">
-        <v>1504.150283386253</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297366</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519653</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C44" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D44" t="n">
         <v>1400.778593038484</v>
@@ -7634,10 +7634,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668916</v>
@@ -7646,25 +7646,25 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1329.933422430382</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486247</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.596005545029</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O44" t="n">
-        <v>3182.560655874483</v>
+        <v>3290.208794490543</v>
       </c>
       <c r="P44" t="n">
-        <v>3577.335022231661</v>
+        <v>3684.983160847721</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603403</v>
@@ -7688,7 +7688,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X44" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y44" t="n">
         <v>2372.257749805548</v>
@@ -7731,19 +7731,19 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F46" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G46" t="n">
         <v>229.7905149643394</v>
@@ -7807,7 +7807,7 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K46" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
         <v>786.3326864982171</v>
@@ -7840,7 +7840,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V46" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W46" t="n">
         <v>1262.182746297367</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>207.0917554489719</v>
+        <v>207.0917554489367</v>
       </c>
       <c r="L8" t="n">
-        <v>219.6411280129036</v>
+        <v>219.6411280128598</v>
       </c>
       <c r="M8" t="n">
-        <v>212.4037444773526</v>
+        <v>212.4037444773039</v>
       </c>
       <c r="N8" t="n">
-        <v>211.1802466204026</v>
+        <v>211.1802466203532</v>
       </c>
       <c r="O8" t="n">
-        <v>212.881479372891</v>
+        <v>212.8814793728443</v>
       </c>
       <c r="P8" t="n">
-        <v>216.538913274796</v>
+        <v>216.5389132747561</v>
       </c>
       <c r="Q8" t="n">
-        <v>211.2710458816939</v>
+        <v>211.271045881664</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>121.6722392886421</v>
+        <v>121.6722392886281</v>
       </c>
       <c r="K9" t="n">
-        <v>129.0129692145182</v>
+        <v>129.0129692144943</v>
       </c>
       <c r="L9" t="n">
-        <v>126.6834126869302</v>
+        <v>126.683412686898</v>
       </c>
       <c r="M9" t="n">
-        <v>128.2811752418977</v>
+        <v>128.2811752418601</v>
       </c>
       <c r="N9" t="n">
-        <v>117.1222094544174</v>
+        <v>117.1222094543788</v>
       </c>
       <c r="O9" t="n">
-        <v>129.5881775443145</v>
+        <v>129.5881775442793</v>
       </c>
       <c r="P9" t="n">
-        <v>123.5342869155403</v>
+        <v>123.534286915512</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.0028300142502</v>
+        <v>133.0028300142312</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>128.0701282031907</v>
+        <v>128.0701282031722</v>
       </c>
       <c r="M10" t="n">
-        <v>131.7407984694483</v>
+        <v>131.7407984694289</v>
       </c>
       <c r="N10" t="n">
-        <v>120.6714018825149</v>
+        <v>120.6714018824958</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9778425048277</v>
+        <v>131.9778425048102</v>
       </c>
       <c r="P10" t="n">
-        <v>132.1843604371661</v>
+        <v>132.1843604371511</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-4.405364961712621e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>28.65608477603791</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>240.9710754359432</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9875,16 +9875,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>287.0017854473917</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>209.1187564935608</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>287.0017854473909</v>
+        <v>334.4868774152288</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>18.7916914562332</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>65.51711806374351</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>94.37250464902024</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.74982042514829</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>221.2853655744092</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>137.5908801368512</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>274.8351763665428</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>18.79169145623314</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>277.8321087236487</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>108.7354935515752</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.20055424148149</v>
+        <v>15.20055424148122</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>250.5877804102471</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>46.23229107082483</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.2179546789802</v>
+        <v>137.8624653395582</v>
       </c>
     </row>
     <row r="12">
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.45320309593046</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.12076666316553</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>52.33243643276472</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23495,19 +23495,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>321.2529077939342</v>
+        <v>321.2529077939341</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>63.15165804412736</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>366.90174167638</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>159.8979861625468</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>270.1554135579617</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>70.45320309593076</v>
+        <v>18.12076666316504</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.33243643276469</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,16 +23738,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>10.22887645342485</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,10 +23792,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>72.71310498068442</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>98.35495372958482</v>
       </c>
       <c r="F20" t="n">
-        <v>345.9875814983146</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-1.84741111297626e-12</v>
+        <v>5.258016244624741e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1059236.702731823</v>
+        <v>1059236.70273181</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>920605.4525693828</v>
+        <v>920605.452569383</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>926586.3713429966</v>
+        <v>926586.3713429965</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>926586.3713429963</v>
+        <v>926586.3713429965</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450601.9862943711</v>
+        <v>450601.986294371</v>
       </c>
       <c r="C2" t="n">
         <v>450601.9862943711</v>
       </c>
       <c r="D2" t="n">
-        <v>450606.4598780918</v>
+        <v>450606.4598780916</v>
       </c>
       <c r="E2" t="n">
         <v>417750.8010015071</v>
       </c>
       <c r="F2" t="n">
-        <v>417750.8010015071</v>
+        <v>417750.8010015074</v>
       </c>
       <c r="G2" t="n">
-        <v>420492.0554394136</v>
+        <v>420492.0554394138</v>
       </c>
       <c r="H2" t="n">
-        <v>420492.0554394138</v>
+        <v>420492.0554394137</v>
       </c>
       <c r="I2" t="n">
         <v>451572.9734253562</v>
@@ -26338,7 +26338,7 @@
         <v>451572.9734253561</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253563</v>
@@ -26350,7 +26350,7 @@
         <v>451572.9734253561</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253561</v>
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>21768.4075480309</v>
+        <v>21768.40754808993</v>
       </c>
       <c r="E3" t="n">
-        <v>1138563.072304504</v>
+        <v>1138563.072304448</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>2364.122113215359</v>
+        <v>2364.122113215319</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902295</v>
+        <v>48646.25967902286</v>
       </c>
       <c r="J3" t="n">
-        <v>35215.9871816587</v>
+        <v>35215.98718165872</v>
       </c>
       <c r="K3" t="n">
-        <v>8.526512829121202e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2364.122113215268</v>
+        <v>2364.122113215331</v>
       </c>
       <c r="M3" t="n">
         <v>207188.5682920729</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>35215.98718165878</v>
+        <v>35215.98718165871</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>425523.1391661036</v>
       </c>
       <c r="D4" t="n">
-        <v>419031.3047786958</v>
+        <v>419031.3047786787</v>
       </c>
       <c r="E4" t="n">
-        <v>54143.61424359357</v>
+        <v>54143.61424359361</v>
       </c>
       <c r="F4" t="n">
-        <v>54143.61424359355</v>
+        <v>54143.61424359363</v>
       </c>
       <c r="G4" t="n">
-        <v>56995.66948357394</v>
+        <v>56995.66948357395</v>
       </c>
       <c r="H4" t="n">
-        <v>56995.66948357394</v>
+        <v>56995.66948357398</v>
       </c>
       <c r="I4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="J4" t="n">
-        <v>78703.96570883352</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="K4" t="n">
-        <v>78703.96570883358</v>
+        <v>78703.96570883348</v>
       </c>
       <c r="L4" t="n">
         <v>78703.96570883351</v>
       </c>
       <c r="M4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="N4" t="n">
-        <v>78703.96570883351</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="O4" t="n">
-        <v>78703.96570883357</v>
+        <v>78703.96570883354</v>
       </c>
       <c r="P4" t="n">
-        <v>78703.96570883357</v>
+        <v>78703.96570883354</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34181.71434720483</v>
+        <v>34181.71434720633</v>
       </c>
       <c r="E5" t="n">
-        <v>78007.05659436187</v>
+        <v>78007.05659436186</v>
       </c>
       <c r="F5" t="n">
         <v>78007.05659436187</v>
@@ -26485,13 +26485,13 @@
         <v>78255.49332178175</v>
       </c>
       <c r="H5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="I5" t="n">
         <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.9416748061</v>
@@ -26500,13 +26500,13 @@
         <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="P5" t="n">
         <v>89377.94167480612</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8548.752871732424</v>
+        <v>-8553.166449600594</v>
       </c>
       <c r="C6" t="n">
-        <v>-8548.752871732482</v>
+        <v>-8553.166449600594</v>
       </c>
       <c r="D6" t="n">
-        <v>-24374.96679583977</v>
+        <v>-24379.36003928001</v>
       </c>
       <c r="E6" t="n">
-        <v>-852962.9421409521</v>
+        <v>-853116.679288278</v>
       </c>
       <c r="F6" t="n">
-        <v>285600.1301635515</v>
+        <v>285446.3930161708</v>
       </c>
       <c r="G6" t="n">
-        <v>282876.7705208426</v>
+        <v>282735.4936209067</v>
       </c>
       <c r="H6" t="n">
-        <v>285240.8926340581</v>
+        <v>285099.6157341219</v>
       </c>
       <c r="I6" t="n">
-        <v>234844.8063626936</v>
+        <v>234844.8063626937</v>
       </c>
       <c r="J6" t="n">
         <v>248275.0788600578</v>
       </c>
       <c r="K6" t="n">
-        <v>283491.0660417163</v>
+        <v>283491.0660417166</v>
       </c>
       <c r="L6" t="n">
-        <v>281126.9439285014</v>
+        <v>281126.9439285013</v>
       </c>
       <c r="M6" t="n">
-        <v>76302.49774964353</v>
+        <v>76302.49774964363</v>
       </c>
       <c r="N6" t="n">
         <v>283491.0660417164</v>
       </c>
       <c r="O6" t="n">
-        <v>248275.0788600575</v>
+        <v>248275.0788600578</v>
       </c>
       <c r="P6" t="n">
         <v>283491.0660417164</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F2" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932132228</v>
+        <v>25.41808932139121</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
@@ -26805,7 +26805,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>2.955152641519199</v>
+        <v>2.955152641519149</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707337</v>
+        <v>44.0199839770734</v>
       </c>
       <c r="K2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519085</v>
+        <v>2.955152641519163</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707347</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>25.41808932132228</v>
+        <v>25.41808932139121</v>
       </c>
       <c r="E3" t="n">
-        <v>1064.358611271976</v>
+        <v>1064.358611271907</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.935005806322</v>
+        <v>182.9350058063217</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>2.955152641519199</v>
+        <v>2.955152641519149</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.01998397707337</v>
+        <v>44.0199839770734</v>
       </c>
       <c r="P2" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.4283176644627</v>
+        <v>338.4283176644598</v>
       </c>
       <c r="I8" t="n">
-        <v>206.5364689128772</v>
+        <v>206.5364689128665</v>
       </c>
       <c r="J8" t="n">
-        <v>3.276611732358939</v>
+        <v>3.27661173233542</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>143.4503478775094</v>
+        <v>143.450347877492</v>
       </c>
       <c r="S8" t="n">
-        <v>206.6915682378649</v>
+        <v>206.6915682378586</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6485422837129</v>
+        <v>222.6485422837117</v>
       </c>
       <c r="U8" t="n">
         <v>251.3374782459442</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2888442918402</v>
+        <v>137.2888442918401</v>
       </c>
       <c r="H9" t="n">
-        <v>111.7074193998403</v>
+        <v>111.7074193998389</v>
       </c>
       <c r="I9" t="n">
-        <v>87.51425548186432</v>
+        <v>87.51425548185922</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>96.76332026176918</v>
+        <v>96.76332026175999</v>
       </c>
       <c r="S9" t="n">
-        <v>170.6676464974624</v>
+        <v>170.6676464974596</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9443586562716</v>
+        <v>199.944358656271</v>
       </c>
       <c r="U9" t="n">
         <v>225.9377851815426</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9451434596826</v>
+        <v>167.9451434596825</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8196496983207</v>
+        <v>161.8196496983196</v>
       </c>
       <c r="I10" t="n">
-        <v>154.0720644440626</v>
+        <v>154.0720644440589</v>
       </c>
       <c r="J10" t="n">
-        <v>90.11858207319862</v>
+        <v>90.11858207318983</v>
       </c>
       <c r="K10" t="n">
-        <v>16.9441937680714</v>
+        <v>16.94419376805696</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.32391176417472</v>
+        <v>82.32391176416431</v>
       </c>
       <c r="R10" t="n">
-        <v>175.232442692198</v>
+        <v>175.2324426921924</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2178033283005</v>
+        <v>223.2178033282984</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7497451335107</v>
+        <v>227.7497451335101</v>
       </c>
       <c r="U10" t="n">
         <v>286.3165292165576</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="C11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="D11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="E11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="G11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="H11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="T11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="U11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="V11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="W11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="X11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Y11" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="C13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="D13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="E13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="F13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="G13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="H13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="I13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="J13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="K13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="L13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="M13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="N13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="O13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="P13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="R13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="S13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="T13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="U13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="V13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="W13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="X13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707339</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="C14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="D14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="E14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="F14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="G14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="H14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="T14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="U14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="V14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="W14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="X14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="Y14" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="C16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="D16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="E16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="F16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="G16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="H16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="I16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="J16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="K16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="L16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="M16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="N16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="O16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="P16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="R16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="S16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="T16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="U16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="V16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="W16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="X16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.01998397707337</v>
+        <v>44.01998397707343</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859213</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="38">
@@ -30417,7 +30417,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859216</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
         <v>46.97513661859259</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661858972</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859269</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1021832736535568</v>
+        <v>0.102183273653834</v>
       </c>
       <c r="H8" t="n">
-        <v>1.046484451304489</v>
+        <v>1.046484451307327</v>
       </c>
       <c r="I8" t="n">
-        <v>3.939420657528754</v>
+        <v>3.939420657539437</v>
       </c>
       <c r="J8" t="n">
-        <v>8.672677622253579</v>
+        <v>8.672677622277098</v>
       </c>
       <c r="K8" t="n">
-        <v>12.99809559600864</v>
+        <v>12.99809559604389</v>
       </c>
       <c r="L8" t="n">
-        <v>16.12528695708368</v>
+        <v>16.12528695712741</v>
       </c>
       <c r="M8" t="n">
-        <v>17.94248874992013</v>
+        <v>17.94248874996878</v>
       </c>
       <c r="N8" t="n">
-        <v>18.2328169761883</v>
+        <v>18.23281697623774</v>
       </c>
       <c r="O8" t="n">
-        <v>17.21673204879574</v>
+        <v>17.21673204884243</v>
       </c>
       <c r="P8" t="n">
-        <v>14.69408248047355</v>
+        <v>14.6940824805134</v>
       </c>
       <c r="Q8" t="n">
-        <v>11.03464399275554</v>
+        <v>11.03464399278547</v>
       </c>
       <c r="R8" t="n">
-        <v>6.418770063640246</v>
+        <v>6.418770063657653</v>
       </c>
       <c r="S8" t="n">
-        <v>2.328501348380429</v>
+        <v>2.328501348386744</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4473072804184453</v>
+        <v>0.4473072804196583</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008174661892284546</v>
+        <v>0.008174661892306714</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05467287137039133</v>
+        <v>0.0546728713705396</v>
       </c>
       <c r="H9" t="n">
-        <v>0.528024836656148</v>
+        <v>0.5280248366575798</v>
       </c>
       <c r="I9" t="n">
-        <v>1.882377369550754</v>
+        <v>1.882377369555859</v>
       </c>
       <c r="J9" t="n">
-        <v>5.165387378024561</v>
+        <v>5.165387378038568</v>
       </c>
       <c r="K9" t="n">
-        <v>8.828469759840779</v>
+        <v>8.828469759864721</v>
       </c>
       <c r="L9" t="n">
-        <v>11.87096709294396</v>
+        <v>11.87096709297615</v>
       </c>
       <c r="M9" t="n">
-        <v>13.85285868012064</v>
+        <v>13.85285868015821</v>
       </c>
       <c r="N9" t="n">
-        <v>14.21950262891595</v>
+        <v>14.21950262895451</v>
       </c>
       <c r="O9" t="n">
-        <v>13.00806690012991</v>
+        <v>13.00806690016518</v>
       </c>
       <c r="P9" t="n">
-        <v>10.4401204987899</v>
+        <v>10.44012049881822</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.978944071771357</v>
+        <v>6.978944071790283</v>
       </c>
       <c r="R9" t="n">
-        <v>3.394513890873947</v>
+        <v>3.394513890883152</v>
       </c>
       <c r="S9" t="n">
-        <v>1.01552460637547</v>
+        <v>1.015524606378224</v>
       </c>
       <c r="T9" t="n">
-        <v>0.2203700385499544</v>
+        <v>0.2203700385505521</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003596899432262589</v>
+        <v>0.003596899432272343</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04583589877615493</v>
+        <v>0.04583589877627924</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4075228091189051</v>
+        <v>0.4075228091200102</v>
       </c>
       <c r="I10" t="n">
-        <v>1.378410483195642</v>
+        <v>1.37841048319938</v>
       </c>
       <c r="J10" t="n">
-        <v>3.240598043474153</v>
+        <v>3.240598043482942</v>
       </c>
       <c r="K10" t="n">
-        <v>5.325298057811454</v>
+        <v>5.325298057825895</v>
       </c>
       <c r="L10" t="n">
-        <v>6.814548078047618</v>
+        <v>6.814548078066098</v>
       </c>
       <c r="M10" t="n">
-        <v>7.184985478156722</v>
+        <v>7.184985478176206</v>
       </c>
       <c r="N10" t="n">
-        <v>7.014142582718332</v>
+        <v>7.014142582737353</v>
       </c>
       <c r="O10" t="n">
-        <v>6.478695947015066</v>
+        <v>6.478695947032635</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5436436119815</v>
+        <v>5.543643611996534</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.838131487519665</v>
+        <v>3.838131487530073</v>
       </c>
       <c r="R10" t="n">
-        <v>2.060948684971475</v>
+        <v>2.060948684977064</v>
       </c>
       <c r="S10" t="n">
-        <v>0.798794708671718</v>
+        <v>0.7987947086738841</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1958442947708438</v>
+        <v>0.1958442947713749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002500139933244818</v>
+        <v>0.002500139933251597</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31847,7 +31847,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837924</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
@@ -33023,10 +33023,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33272,7 +33272,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.7086478970249</v>
@@ -33503,10 +33503,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33977,7 +33977,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -33989,7 +33989,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987486</v>
@@ -34211,7 +34211,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34451,7 +34451,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35495,7 +35495,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004591</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>89.59840059013956</v>
+        <v>89.59840059013959</v>
       </c>
       <c r="K13" t="n">
         <v>250.0676435213929</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>89.59840059013959</v>
+        <v>89.59840059013962</v>
       </c>
       <c r="K16" t="n">
         <v>250.0676435213929</v>
@@ -35823,7 +35823,7 @@
         <v>278.9770551221838</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.414222514967</v>
+        <v>122.4142225149671</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882196</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193716</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K19" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887899</v>
       </c>
       <c r="M19" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N19" t="n">
         <v>391.8320827861326</v>
@@ -36127,7 +36127,7 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302273</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129113</v>
@@ -36200,13 +36200,13 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36285,16 +36285,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36364,19 +36364,19 @@
         <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>567.5772006062645</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>749.0240763241623</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36522,7 +36522,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36534,7 +36534,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>624.1930720027921</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>761.4205919064721</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
@@ -36616,7 +36616,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,16 +36759,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>742.5918998397228</v>
+        <v>790.0769918075607</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36920,7 +36920,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525805</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165887</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>474.3818058485651</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>604.4382338939701</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
@@ -37090,7 +37090,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
@@ -37306,10 +37306,10 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>431.5637912044206</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>81.36301896737301</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N37" t="n">
         <v>391.8320827861326</v>
@@ -37479,7 +37479,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3693751564862</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427824</v>
+        <v>676.8754799667412</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>689.8927155497624</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127271</v>
@@ -37713,7 +37713,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412319</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
         <v>281.932207763703</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>730.4252907588748</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>526.8446923444521</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37859,7 +37859,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609574</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316589</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120735</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>733.4222231159806</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>359.5297983552946</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38099,7 +38099,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
